--- a/strategy/全球购策略/data/wind.xlsx
+++ b/strategy/全球购策略/data/wind.xlsx
@@ -12,7 +12,7 @@
   <externalReferences>
     <externalReference r:id="rId2"/>
   </externalReferences>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" calcOnSave="0"/>
 </workbook>
 </file>
 
@@ -440,8 +440,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C235"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A211" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -464,7 +464,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
-        <f>[1]!TDays("1999-12-01","2019-05-24","Days=Weekdays","Period=M","cols=1;rows=234")</f>
+        <f>[1]!TDays("1999-12-01","2019-05-31","Days=Weekdays","Period=M","cols=1;rows=234")</f>
         <v>36525</v>
       </c>
       <c r="B2">
@@ -3494,15 +3494,15 @@
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A235" s="1">
-        <v>43609</v>
+        <v>43616</v>
       </c>
       <c r="B235">
         <f>[1]!S_DQ_Close($A$1,A235)</f>
-        <v>3851.8371000000002</v>
+        <v>3913.6615999999999</v>
       </c>
       <c r="C235">
         <f>[1]!s_val_pe_ttm($A$1,A235)</f>
-        <v>16.353399276733398</v>
+        <v>16.662599563598633</v>
       </c>
     </row>
   </sheetData>

--- a/strategy/全球购策略/data/wind.xlsx
+++ b/strategy/全球购策略/data/wind.xlsx
@@ -438,10 +438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C235"/>
+  <dimension ref="A1:C238"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A211" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A229" workbookViewId="0">
+      <selection activeCell="C233" sqref="C233"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -464,7 +464,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
-        <f>[1]!TDays("1999-12-01","2019-05-31","Days=Weekdays","Period=M","cols=1;rows=234")</f>
+        <f>[1]!TDays("1999-12-01","2019-08-31","Days=Weekdays","Period=M","cols=1;rows=237")</f>
         <v>36525</v>
       </c>
       <c r="B2">
@@ -3503,6 +3503,45 @@
       <c r="C235">
         <f>[1]!s_val_pe_ttm($A$1,A235)</f>
         <v>16.662599563598633</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A236" s="1">
+        <v>43644</v>
+      </c>
+      <c r="B236">
+        <f>[1]!S_DQ_Close($A$1,A236)</f>
+        <v>4045.6673000000001</v>
+      </c>
+      <c r="C236">
+        <f>[1]!s_val_pe_ttm($A$1,A236)</f>
+        <v>17.120399475097656</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A237" s="1">
+        <v>43677</v>
+      </c>
+      <c r="B237">
+        <f>[1]!S_DQ_Close($A$1,A237)</f>
+        <v>4041.1185999999998</v>
+      </c>
+      <c r="C237">
+        <f>[1]!s_val_pe_ttm($A$1,A237)</f>
+        <v>16.937900543212891</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A238" s="1">
+        <v>43707</v>
+      </c>
+      <c r="B238">
+        <f>[1]!S_DQ_Close($A$1,A238)</f>
+        <v>4011.1518000000001</v>
+      </c>
+      <c r="C238">
+        <f>[1]!s_val_pe_ttm($A$1,A238)</f>
+        <v>16.622400283813477</v>
       </c>
     </row>
   </sheetData>

--- a/strategy/全球购策略/data/wind.xlsx
+++ b/strategy/全球购策略/data/wind.xlsx
@@ -12,7 +12,7 @@
   <externalReferences>
     <externalReference r:id="rId2"/>
   </externalReferences>
-  <calcPr calcId="152511" calcOnSave="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -438,10 +438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C238"/>
+  <dimension ref="A1:C239"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A229" workbookViewId="0">
-      <selection activeCell="C233" sqref="C233"/>
+      <selection activeCell="A240" sqref="A240"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3544,6 +3544,19 @@
         <v>16.622400283813477</v>
       </c>
     </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A239" s="1">
+        <v>43738</v>
+      </c>
+      <c r="B239">
+        <f>[1]!S_DQ_Close($A$1,A239)</f>
+        <v>4042.0189</v>
+      </c>
+      <c r="C239">
+        <f>[1]!s_val_pe_ttm($A$1,A239)</f>
+        <v>16.859600067138672</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/strategy/全球购策略/data/wind.xlsx
+++ b/strategy/全球购策略/data/wind.xlsx
@@ -438,10 +438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C239"/>
+  <dimension ref="A1:C240"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A229" workbookViewId="0">
-      <selection activeCell="A240" sqref="A240"/>
+      <selection activeCell="A241" sqref="A241"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3557,6 +3557,19 @@
         <v>16.859600067138672</v>
       </c>
     </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A240" s="1">
+        <v>43769</v>
+      </c>
+      <c r="B240">
+        <f>[1]!S_DQ_Close($A$1,A240)</f>
+        <v>4075.0093000000002</v>
+      </c>
+      <c r="C240">
+        <f>[1]!s_val_pe_ttm($A$1,A240)</f>
+        <v>16.699699401855469</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/strategy/全球购策略/data/wind.xlsx
+++ b/strategy/全球购策略/data/wind.xlsx
@@ -438,10 +438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C240"/>
+  <dimension ref="A1:C241"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A229" workbookViewId="0">
-      <selection activeCell="A241" sqref="A241"/>
+    <sheetView tabSelected="1" topLeftCell="A202" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3570,6 +3570,19 @@
         <v>16.699699401855469</v>
       </c>
     </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A241" s="1">
+        <v>43799</v>
+      </c>
+      <c r="B241">
+        <f>[1]!S_DQ_Close($A$1,A241)</f>
+        <v>4013.6017999999999</v>
+      </c>
+      <c r="C241">
+        <f>[1]!s_val_pe_ttm($A$1,A241)</f>
+        <v>16.460599899291992</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/strategy/全球购策略/data/wind.xlsx
+++ b/strategy/全球购策略/data/wind.xlsx
@@ -438,10 +438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C241"/>
+  <dimension ref="A1:C244"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A202" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A212" workbookViewId="0">
+      <selection activeCell="A245" sqref="A245"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3583,6 +3583,45 @@
         <v>16.460599899291992</v>
       </c>
     </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A242" s="1">
+        <v>43830</v>
+      </c>
+      <c r="B242">
+        <f>[1]!S_DQ_Close($A$1,A242)</f>
+        <v>4316.4898999999996</v>
+      </c>
+      <c r="C242">
+        <f>[1]!s_val_pe_ttm($A$1,A242)</f>
+        <v>17.497699737548828</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A243" s="1">
+        <v>43861</v>
+      </c>
+      <c r="B243">
+        <f>[1]!S_DQ_Close($A$1,A243)</f>
+        <v>4429.4453000000003</v>
+      </c>
+      <c r="C243">
+        <f>[1]!s_val_pe_ttm($A$1,A243)</f>
+        <v>17.383600234985352</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A244" s="1">
+        <v>43889</v>
+      </c>
+      <c r="B244">
+        <f>[1]!S_DQ_Close($A$1,A244)</f>
+        <v>4304.3982999999998</v>
+      </c>
+      <c r="C244">
+        <f>[1]!s_val_pe_ttm($A$1,A244)</f>
+        <v>17.082199096679688</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/strategy/全球购策略/data/wind.xlsx
+++ b/strategy/全球购策略/data/wind.xlsx
@@ -438,10 +438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C244"/>
+  <dimension ref="A1:C246"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A212" workbookViewId="0">
-      <selection activeCell="A245" sqref="A245"/>
+      <selection activeCell="C245" sqref="C245"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3450,7 +3450,7 @@
       </c>
       <c r="C231">
         <f>[1]!s_val_pe_ttm($A$1,A231)</f>
-        <v>13.634300231933594</v>
+        <v>13.634499549865723</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.15">
@@ -3502,7 +3502,7 @@
       </c>
       <c r="C235">
         <f>[1]!s_val_pe_ttm($A$1,A235)</f>
-        <v>16.662599563598633</v>
+        <v>16.66309928894043</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.15">
@@ -3515,7 +3515,7 @@
       </c>
       <c r="C236">
         <f>[1]!s_val_pe_ttm($A$1,A236)</f>
-        <v>17.120399475097656</v>
+        <v>17.121599197387695</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.15">
@@ -3567,7 +3567,7 @@
       </c>
       <c r="C240">
         <f>[1]!s_val_pe_ttm($A$1,A240)</f>
-        <v>16.699699401855469</v>
+        <v>16.712799072265625</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.15">
@@ -3602,7 +3602,7 @@
       </c>
       <c r="B243">
         <f>[1]!S_DQ_Close($A$1,A243)</f>
-        <v>4429.4453000000003</v>
+        <v>4305.5828000000001</v>
       </c>
       <c r="C243">
         <f>[1]!s_val_pe_ttm($A$1,A243)</f>
@@ -3620,6 +3620,32 @@
       <c r="C244">
         <f>[1]!s_val_pe_ttm($A$1,A244)</f>
         <v>17.082199096679688</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A245" s="1">
+        <v>43921</v>
+      </c>
+      <c r="B245">
+        <f>[1]!S_DQ_Close($A$1,A245)</f>
+        <v>4023.3092000000001</v>
+      </c>
+      <c r="C245">
+        <f>[1]!s_val_pe_ttm($A$1,A245)</f>
+        <v>15.893500328063965</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A246" s="1">
+        <v>43951</v>
+      </c>
+      <c r="B246">
+        <f>[1]!S_DQ_Close($A$1,A246)</f>
+        <v>4233.8173999999999</v>
+      </c>
+      <c r="C246">
+        <f>[1]!s_val_pe_ttm($A$1,A246)</f>
+        <v>18.361400604248047</v>
       </c>
     </row>
   </sheetData>

--- a/strategy/全球购策略/data/wind.xlsx
+++ b/strategy/全球购策略/data/wind.xlsx
@@ -60,9 +60,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
-  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -107,9 +104,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -438,21 +436,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C246"/>
+  <dimension ref="A1:C248"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A212" workbookViewId="0">
-      <selection activeCell="C245" sqref="C245"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C237" sqref="C237"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -463,7 +461,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" s="1">
+      <c r="A2" s="2">
         <f>[1]!TDays("1999-12-01","2019-08-31","Days=Weekdays","Period=M","cols=1;rows=237")</f>
         <v>36525</v>
       </c>
@@ -477,7 +475,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" s="1">
+      <c r="A3" s="2">
         <v>36556</v>
       </c>
       <c r="B3">
@@ -490,7 +488,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4" s="1">
+      <c r="A4" s="2">
         <v>36585</v>
       </c>
       <c r="B4">
@@ -503,7 +501,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" s="1">
+      <c r="A5" s="2">
         <v>36616</v>
       </c>
       <c r="B5">
@@ -516,7 +514,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" s="1">
+      <c r="A6" s="2">
         <v>36644</v>
       </c>
       <c r="B6">
@@ -529,7 +527,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" s="1">
+      <c r="A7" s="2">
         <v>36677</v>
       </c>
       <c r="B7">
@@ -542,7 +540,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" s="1">
+      <c r="A8" s="2">
         <v>36707</v>
       </c>
       <c r="B8">
@@ -555,7 +553,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" s="1">
+      <c r="A9" s="2">
         <v>36738</v>
       </c>
       <c r="B9">
@@ -568,7 +566,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A10" s="1">
+      <c r="A10" s="2">
         <v>36769</v>
       </c>
       <c r="B10">
@@ -581,7 +579,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A11" s="1">
+      <c r="A11" s="2">
         <v>36798</v>
       </c>
       <c r="B11">
@@ -594,7 +592,7 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A12" s="1">
+      <c r="A12" s="2">
         <v>36830</v>
       </c>
       <c r="B12">
@@ -607,7 +605,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A13" s="1">
+      <c r="A13" s="2">
         <v>36860</v>
       </c>
       <c r="B13">
@@ -620,7 +618,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A14" s="1">
+      <c r="A14" s="2">
         <v>36889</v>
       </c>
       <c r="B14">
@@ -633,7 +631,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A15" s="1">
+      <c r="A15" s="2">
         <v>36922</v>
       </c>
       <c r="B15">
@@ -646,7 +644,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A16" s="1">
+      <c r="A16" s="2">
         <v>36950</v>
       </c>
       <c r="B16">
@@ -659,7 +657,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A17" s="1">
+      <c r="A17" s="2">
         <v>36980</v>
       </c>
       <c r="B17">
@@ -672,7 +670,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A18" s="1">
+      <c r="A18" s="2">
         <v>37011</v>
       </c>
       <c r="B18">
@@ -685,7 +683,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A19" s="1">
+      <c r="A19" s="2">
         <v>37042</v>
       </c>
       <c r="B19">
@@ -698,7 +696,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A20" s="1">
+      <c r="A20" s="2">
         <v>37071</v>
       </c>
       <c r="B20">
@@ -711,7 +709,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A21" s="1">
+      <c r="A21" s="2">
         <v>37103</v>
       </c>
       <c r="B21">
@@ -724,7 +722,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A22" s="1">
+      <c r="A22" s="2">
         <v>37134</v>
       </c>
       <c r="B22">
@@ -737,7 +735,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A23" s="1">
+      <c r="A23" s="2">
         <v>37162</v>
       </c>
       <c r="B23">
@@ -750,7 +748,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A24" s="1">
+      <c r="A24" s="2">
         <v>37195</v>
       </c>
       <c r="B24">
@@ -763,7 +761,7 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A25" s="1">
+      <c r="A25" s="2">
         <v>37225</v>
       </c>
       <c r="B25">
@@ -776,7 +774,7 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A26" s="1">
+      <c r="A26" s="2">
         <v>37256</v>
       </c>
       <c r="B26">
@@ -789,7 +787,7 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A27" s="1">
+      <c r="A27" s="2">
         <v>37287</v>
       </c>
       <c r="B27">
@@ -802,7 +800,7 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A28" s="1">
+      <c r="A28" s="2">
         <v>37315</v>
       </c>
       <c r="B28">
@@ -815,7 +813,7 @@
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A29" s="1">
+      <c r="A29" s="2">
         <v>37344</v>
       </c>
       <c r="B29">
@@ -828,7 +826,7 @@
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A30" s="1">
+      <c r="A30" s="2">
         <v>37376</v>
       </c>
       <c r="B30">
@@ -841,7 +839,7 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A31" s="1">
+      <c r="A31" s="2">
         <v>37407</v>
       </c>
       <c r="B31">
@@ -854,7 +852,7 @@
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A32" s="1">
+      <c r="A32" s="2">
         <v>37435</v>
       </c>
       <c r="B32">
@@ -867,7 +865,7 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A33" s="1">
+      <c r="A33" s="2">
         <v>37468</v>
       </c>
       <c r="B33">
@@ -880,7 +878,7 @@
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A34" s="1">
+      <c r="A34" s="2">
         <v>37498</v>
       </c>
       <c r="B34">
@@ -893,7 +891,7 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A35" s="1">
+      <c r="A35" s="2">
         <v>37529</v>
       </c>
       <c r="B35">
@@ -906,7 +904,7 @@
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A36" s="1">
+      <c r="A36" s="2">
         <v>37560</v>
       </c>
       <c r="B36">
@@ -919,7 +917,7 @@
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A37" s="1">
+      <c r="A37" s="2">
         <v>37589</v>
       </c>
       <c r="B37">
@@ -932,7 +930,7 @@
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A38" s="1">
+      <c r="A38" s="2">
         <v>37621</v>
       </c>
       <c r="B38">
@@ -945,7 +943,7 @@
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A39" s="1">
+      <c r="A39" s="2">
         <v>37652</v>
       </c>
       <c r="B39">
@@ -958,7 +956,7 @@
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A40" s="1">
+      <c r="A40" s="2">
         <v>37680</v>
       </c>
       <c r="B40">
@@ -971,7 +969,7 @@
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A41" s="1">
+      <c r="A41" s="2">
         <v>37711</v>
       </c>
       <c r="B41">
@@ -984,7 +982,7 @@
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A42" s="1">
+      <c r="A42" s="2">
         <v>37741</v>
       </c>
       <c r="B42">
@@ -997,7 +995,7 @@
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A43" s="1">
+      <c r="A43" s="2">
         <v>37771</v>
       </c>
       <c r="B43">
@@ -1010,7 +1008,7 @@
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A44" s="1">
+      <c r="A44" s="2">
         <v>37802</v>
       </c>
       <c r="B44">
@@ -1023,7 +1021,7 @@
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A45" s="1">
+      <c r="A45" s="2">
         <v>37833</v>
       </c>
       <c r="B45">
@@ -1036,7 +1034,7 @@
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A46" s="1">
+      <c r="A46" s="2">
         <v>37862</v>
       </c>
       <c r="B46">
@@ -1049,7 +1047,7 @@
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A47" s="1">
+      <c r="A47" s="2">
         <v>37894</v>
       </c>
       <c r="B47">
@@ -1062,7 +1060,7 @@
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A48" s="1">
+      <c r="A48" s="2">
         <v>37925</v>
       </c>
       <c r="B48">
@@ -1075,7 +1073,7 @@
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A49" s="1">
+      <c r="A49" s="2">
         <v>37953</v>
       </c>
       <c r="B49">
@@ -1088,7 +1086,7 @@
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A50" s="1">
+      <c r="A50" s="2">
         <v>37986</v>
       </c>
       <c r="B50">
@@ -1101,7 +1099,7 @@
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A51" s="1">
+      <c r="A51" s="2">
         <v>38016</v>
       </c>
       <c r="B51">
@@ -1114,7 +1112,7 @@
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A52" s="1">
+      <c r="A52" s="2">
         <v>38044</v>
       </c>
       <c r="B52">
@@ -1127,7 +1125,7 @@
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A53" s="1">
+      <c r="A53" s="2">
         <v>38077</v>
       </c>
       <c r="B53">
@@ -1140,7 +1138,7 @@
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A54" s="1">
+      <c r="A54" s="2">
         <v>38107</v>
       </c>
       <c r="B54">
@@ -1153,7 +1151,7 @@
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A55" s="1">
+      <c r="A55" s="2">
         <v>38138</v>
       </c>
       <c r="B55">
@@ -1166,7 +1164,7 @@
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A56" s="1">
+      <c r="A56" s="2">
         <v>38168</v>
       </c>
       <c r="B56">
@@ -1179,7 +1177,7 @@
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A57" s="1">
+      <c r="A57" s="2">
         <v>38198</v>
       </c>
       <c r="B57">
@@ -1192,7 +1190,7 @@
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A58" s="1">
+      <c r="A58" s="2">
         <v>38230</v>
       </c>
       <c r="B58">
@@ -1205,7 +1203,7 @@
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A59" s="1">
+      <c r="A59" s="2">
         <v>38260</v>
       </c>
       <c r="B59">
@@ -1218,7 +1216,7 @@
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A60" s="1">
+      <c r="A60" s="2">
         <v>38289</v>
       </c>
       <c r="B60">
@@ -1231,7 +1229,7 @@
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A61" s="1">
+      <c r="A61" s="2">
         <v>38321</v>
       </c>
       <c r="B61">
@@ -1244,7 +1242,7 @@
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A62" s="1">
+      <c r="A62" s="2">
         <v>38352</v>
       </c>
       <c r="B62">
@@ -1257,7 +1255,7 @@
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A63" s="1">
+      <c r="A63" s="2">
         <v>38383</v>
       </c>
       <c r="B63">
@@ -1270,7 +1268,7 @@
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A64" s="1">
+      <c r="A64" s="2">
         <v>38411</v>
       </c>
       <c r="B64">
@@ -1283,7 +1281,7 @@
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A65" s="1">
+      <c r="A65" s="2">
         <v>38442</v>
       </c>
       <c r="B65">
@@ -1296,7 +1294,7 @@
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A66" s="1">
+      <c r="A66" s="2">
         <v>38471</v>
       </c>
       <c r="B66">
@@ -1309,7 +1307,7 @@
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A67" s="1">
+      <c r="A67" s="2">
         <v>38503</v>
       </c>
       <c r="B67">
@@ -1322,7 +1320,7 @@
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A68" s="1">
+      <c r="A68" s="2">
         <v>38533</v>
       </c>
       <c r="B68">
@@ -1335,7 +1333,7 @@
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A69" s="1">
+      <c r="A69" s="2">
         <v>38562</v>
       </c>
       <c r="B69">
@@ -1348,7 +1346,7 @@
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A70" s="1">
+      <c r="A70" s="2">
         <v>38595</v>
       </c>
       <c r="B70">
@@ -1361,7 +1359,7 @@
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A71" s="1">
+      <c r="A71" s="2">
         <v>38625</v>
       </c>
       <c r="B71">
@@ -1374,7 +1372,7 @@
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A72" s="1">
+      <c r="A72" s="2">
         <v>38656</v>
       </c>
       <c r="B72">
@@ -1387,7 +1385,7 @@
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A73" s="1">
+      <c r="A73" s="2">
         <v>38686</v>
       </c>
       <c r="B73">
@@ -1400,7 +1398,7 @@
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A74" s="1">
+      <c r="A74" s="2">
         <v>38716</v>
       </c>
       <c r="B74">
@@ -1413,7 +1411,7 @@
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A75" s="1">
+      <c r="A75" s="2">
         <v>38748</v>
       </c>
       <c r="B75">
@@ -1426,7 +1424,7 @@
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A76" s="1">
+      <c r="A76" s="2">
         <v>38776</v>
       </c>
       <c r="B76">
@@ -1439,7 +1437,7 @@
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A77" s="1">
+      <c r="A77" s="2">
         <v>38807</v>
       </c>
       <c r="B77">
@@ -1452,7 +1450,7 @@
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A78" s="1">
+      <c r="A78" s="2">
         <v>38835</v>
       </c>
       <c r="B78">
@@ -1465,7 +1463,7 @@
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A79" s="1">
+      <c r="A79" s="2">
         <v>38868</v>
       </c>
       <c r="B79">
@@ -1478,7 +1476,7 @@
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A80" s="1">
+      <c r="A80" s="2">
         <v>38898</v>
       </c>
       <c r="B80">
@@ -1491,7 +1489,7 @@
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A81" s="1">
+      <c r="A81" s="2">
         <v>38929</v>
       </c>
       <c r="B81">
@@ -1504,7 +1502,7 @@
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A82" s="1">
+      <c r="A82" s="2">
         <v>38960</v>
       </c>
       <c r="B82">
@@ -1517,7 +1515,7 @@
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A83" s="1">
+      <c r="A83" s="2">
         <v>38989</v>
       </c>
       <c r="B83">
@@ -1530,7 +1528,7 @@
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A84" s="1">
+      <c r="A84" s="2">
         <v>39021</v>
       </c>
       <c r="B84">
@@ -1543,7 +1541,7 @@
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A85" s="1">
+      <c r="A85" s="2">
         <v>39051</v>
       </c>
       <c r="B85">
@@ -1556,7 +1554,7 @@
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A86" s="1">
+      <c r="A86" s="2">
         <v>39080</v>
       </c>
       <c r="B86">
@@ -1569,7 +1567,7 @@
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A87" s="1">
+      <c r="A87" s="2">
         <v>39113</v>
       </c>
       <c r="B87">
@@ -1582,7 +1580,7 @@
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A88" s="1">
+      <c r="A88" s="2">
         <v>39141</v>
       </c>
       <c r="B88">
@@ -1595,7 +1593,7 @@
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A89" s="1">
+      <c r="A89" s="2">
         <v>39171</v>
       </c>
       <c r="B89">
@@ -1608,7 +1606,7 @@
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A90" s="1">
+      <c r="A90" s="2">
         <v>39202</v>
       </c>
       <c r="B90">
@@ -1621,7 +1619,7 @@
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A91" s="1">
+      <c r="A91" s="2">
         <v>39233</v>
       </c>
       <c r="B91">
@@ -1634,7 +1632,7 @@
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A92" s="1">
+      <c r="A92" s="2">
         <v>39262</v>
       </c>
       <c r="B92">
@@ -1647,7 +1645,7 @@
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A93" s="1">
+      <c r="A93" s="2">
         <v>39294</v>
       </c>
       <c r="B93">
@@ -1660,7 +1658,7 @@
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A94" s="1">
+      <c r="A94" s="2">
         <v>39325</v>
       </c>
       <c r="B94">
@@ -1673,7 +1671,7 @@
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A95" s="1">
+      <c r="A95" s="2">
         <v>39353</v>
       </c>
       <c r="B95">
@@ -1686,7 +1684,7 @@
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A96" s="1">
+      <c r="A96" s="2">
         <v>39386</v>
       </c>
       <c r="B96">
@@ -1699,7 +1697,7 @@
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A97" s="1">
+      <c r="A97" s="2">
         <v>39416</v>
       </c>
       <c r="B97">
@@ -1712,7 +1710,7 @@
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A98" s="1">
+      <c r="A98" s="2">
         <v>39447</v>
       </c>
       <c r="B98">
@@ -1725,7 +1723,7 @@
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A99" s="1">
+      <c r="A99" s="2">
         <v>39478</v>
       </c>
       <c r="B99">
@@ -1738,7 +1736,7 @@
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A100" s="1">
+      <c r="A100" s="2">
         <v>39507</v>
       </c>
       <c r="B100">
@@ -1751,7 +1749,7 @@
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A101" s="1">
+      <c r="A101" s="2">
         <v>39538</v>
       </c>
       <c r="B101">
@@ -1764,7 +1762,7 @@
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A102" s="1">
+      <c r="A102" s="2">
         <v>39568</v>
       </c>
       <c r="B102">
@@ -1777,7 +1775,7 @@
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A103" s="1">
+      <c r="A103" s="2">
         <v>39598</v>
       </c>
       <c r="B103">
@@ -1790,7 +1788,7 @@
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A104" s="1">
+      <c r="A104" s="2">
         <v>39629</v>
       </c>
       <c r="B104">
@@ -1803,7 +1801,7 @@
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A105" s="1">
+      <c r="A105" s="2">
         <v>39660</v>
       </c>
       <c r="B105">
@@ -1816,7 +1814,7 @@
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A106" s="1">
+      <c r="A106" s="2">
         <v>39689</v>
       </c>
       <c r="B106">
@@ -1829,7 +1827,7 @@
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A107" s="1">
+      <c r="A107" s="2">
         <v>39721</v>
       </c>
       <c r="B107">
@@ -1842,7 +1840,7 @@
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A108" s="1">
+      <c r="A108" s="2">
         <v>39752</v>
       </c>
       <c r="B108">
@@ -1855,7 +1853,7 @@
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A109" s="1">
+      <c r="A109" s="2">
         <v>39780</v>
       </c>
       <c r="B109">
@@ -1868,7 +1866,7 @@
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A110" s="1">
+      <c r="A110" s="2">
         <v>39813</v>
       </c>
       <c r="B110">
@@ -1881,7 +1879,7 @@
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A111" s="1">
+      <c r="A111" s="2">
         <v>39843</v>
       </c>
       <c r="B111">
@@ -1894,7 +1892,7 @@
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A112" s="1">
+      <c r="A112" s="2">
         <v>39871</v>
       </c>
       <c r="B112">
@@ -1907,7 +1905,7 @@
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A113" s="1">
+      <c r="A113" s="2">
         <v>39903</v>
       </c>
       <c r="B113">
@@ -1920,7 +1918,7 @@
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A114" s="1">
+      <c r="A114" s="2">
         <v>39933</v>
       </c>
       <c r="B114">
@@ -1933,7 +1931,7 @@
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A115" s="1">
+      <c r="A115" s="2">
         <v>39962</v>
       </c>
       <c r="B115">
@@ -1946,7 +1944,7 @@
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A116" s="1">
+      <c r="A116" s="2">
         <v>39994</v>
       </c>
       <c r="B116">
@@ -1959,7 +1957,7 @@
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A117" s="1">
+      <c r="A117" s="2">
         <v>40025</v>
       </c>
       <c r="B117">
@@ -1972,7 +1970,7 @@
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A118" s="1">
+      <c r="A118" s="2">
         <v>40056</v>
       </c>
       <c r="B118">
@@ -1985,7 +1983,7 @@
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A119" s="1">
+      <c r="A119" s="2">
         <v>40086</v>
       </c>
       <c r="B119">
@@ -1998,7 +1996,7 @@
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A120" s="1">
+      <c r="A120" s="2">
         <v>40116</v>
       </c>
       <c r="B120">
@@ -2011,7 +2009,7 @@
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A121" s="1">
+      <c r="A121" s="2">
         <v>40147</v>
       </c>
       <c r="B121">
@@ -2024,7 +2022,7 @@
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A122" s="1">
+      <c r="A122" s="2">
         <v>40178</v>
       </c>
       <c r="B122">
@@ -2037,7 +2035,7 @@
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A123" s="1">
+      <c r="A123" s="2">
         <v>40207</v>
       </c>
       <c r="B123">
@@ -2050,7 +2048,7 @@
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A124" s="1">
+      <c r="A124" s="2">
         <v>40235</v>
       </c>
       <c r="B124">
@@ -2063,7 +2061,7 @@
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A125" s="1">
+      <c r="A125" s="2">
         <v>40268</v>
       </c>
       <c r="B125">
@@ -2076,7 +2074,7 @@
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A126" s="1">
+      <c r="A126" s="2">
         <v>40298</v>
       </c>
       <c r="B126">
@@ -2089,7 +2087,7 @@
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A127" s="1">
+      <c r="A127" s="2">
         <v>40329</v>
       </c>
       <c r="B127">
@@ -2102,7 +2100,7 @@
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A128" s="1">
+      <c r="A128" s="2">
         <v>40359</v>
       </c>
       <c r="B128">
@@ -2115,7 +2113,7 @@
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A129" s="1">
+      <c r="A129" s="2">
         <v>40389</v>
       </c>
       <c r="B129">
@@ -2128,7 +2126,7 @@
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A130" s="1">
+      <c r="A130" s="2">
         <v>40421</v>
       </c>
       <c r="B130">
@@ -2141,7 +2139,7 @@
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A131" s="1">
+      <c r="A131" s="2">
         <v>40451</v>
       </c>
       <c r="B131">
@@ -2154,7 +2152,7 @@
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A132" s="1">
+      <c r="A132" s="2">
         <v>40480</v>
       </c>
       <c r="B132">
@@ -2167,7 +2165,7 @@
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A133" s="1">
+      <c r="A133" s="2">
         <v>40512</v>
       </c>
       <c r="B133">
@@ -2180,7 +2178,7 @@
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A134" s="1">
+      <c r="A134" s="2">
         <v>40543</v>
       </c>
       <c r="B134">
@@ -2193,7 +2191,7 @@
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A135" s="1">
+      <c r="A135" s="2">
         <v>40574</v>
       </c>
       <c r="B135">
@@ -2206,7 +2204,7 @@
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A136" s="1">
+      <c r="A136" s="2">
         <v>40602</v>
       </c>
       <c r="B136">
@@ -2219,7 +2217,7 @@
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A137" s="1">
+      <c r="A137" s="2">
         <v>40633</v>
       </c>
       <c r="B137">
@@ -2232,7 +2230,7 @@
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A138" s="1">
+      <c r="A138" s="2">
         <v>40662</v>
       </c>
       <c r="B138">
@@ -2245,7 +2243,7 @@
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A139" s="1">
+      <c r="A139" s="2">
         <v>40694</v>
       </c>
       <c r="B139">
@@ -2258,7 +2256,7 @@
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A140" s="1">
+      <c r="A140" s="2">
         <v>40724</v>
       </c>
       <c r="B140">
@@ -2271,7 +2269,7 @@
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A141" s="1">
+      <c r="A141" s="2">
         <v>40753</v>
       </c>
       <c r="B141">
@@ -2284,7 +2282,7 @@
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A142" s="1">
+      <c r="A142" s="2">
         <v>40786</v>
       </c>
       <c r="B142">
@@ -2297,7 +2295,7 @@
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A143" s="1">
+      <c r="A143" s="2">
         <v>40816</v>
       </c>
       <c r="B143">
@@ -2310,7 +2308,7 @@
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A144" s="1">
+      <c r="A144" s="2">
         <v>40847</v>
       </c>
       <c r="B144">
@@ -2323,7 +2321,7 @@
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A145" s="1">
+      <c r="A145" s="2">
         <v>40877</v>
       </c>
       <c r="B145">
@@ -2336,7 +2334,7 @@
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A146" s="1">
+      <c r="A146" s="2">
         <v>40907</v>
       </c>
       <c r="B146">
@@ -2349,7 +2347,7 @@
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A147" s="1">
+      <c r="A147" s="2">
         <v>40939</v>
       </c>
       <c r="B147">
@@ -2362,7 +2360,7 @@
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A148" s="1">
+      <c r="A148" s="2">
         <v>40968</v>
       </c>
       <c r="B148">
@@ -2375,7 +2373,7 @@
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A149" s="1">
+      <c r="A149" s="2">
         <v>40998</v>
       </c>
       <c r="B149">
@@ -2388,7 +2386,7 @@
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A150" s="1">
+      <c r="A150" s="2">
         <v>41029</v>
       </c>
       <c r="B150">
@@ -2401,7 +2399,7 @@
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A151" s="1">
+      <c r="A151" s="2">
         <v>41060</v>
       </c>
       <c r="B151">
@@ -2414,7 +2412,7 @@
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A152" s="1">
+      <c r="A152" s="2">
         <v>41089</v>
       </c>
       <c r="B152">
@@ -2427,7 +2425,7 @@
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A153" s="1">
+      <c r="A153" s="2">
         <v>41121</v>
       </c>
       <c r="B153">
@@ -2440,7 +2438,7 @@
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A154" s="1">
+      <c r="A154" s="2">
         <v>41152</v>
       </c>
       <c r="B154">
@@ -2453,7 +2451,7 @@
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A155" s="1">
+      <c r="A155" s="2">
         <v>41180</v>
       </c>
       <c r="B155">
@@ -2466,7 +2464,7 @@
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A156" s="1">
+      <c r="A156" s="2">
         <v>41213</v>
       </c>
       <c r="B156">
@@ -2479,7 +2477,7 @@
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A157" s="1">
+      <c r="A157" s="2">
         <v>41243</v>
       </c>
       <c r="B157">
@@ -2492,7 +2490,7 @@
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A158" s="1">
+      <c r="A158" s="2">
         <v>41274</v>
       </c>
       <c r="B158">
@@ -2505,7 +2503,7 @@
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A159" s="1">
+      <c r="A159" s="2">
         <v>41305</v>
       </c>
       <c r="B159">
@@ -2518,7 +2516,7 @@
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A160" s="1">
+      <c r="A160" s="2">
         <v>41333</v>
       </c>
       <c r="B160">
@@ -2531,7 +2529,7 @@
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A161" s="1">
+      <c r="A161" s="2">
         <v>41362</v>
       </c>
       <c r="B161">
@@ -2544,7 +2542,7 @@
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A162" s="1">
+      <c r="A162" s="2">
         <v>41394</v>
       </c>
       <c r="B162">
@@ -2557,7 +2555,7 @@
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A163" s="1">
+      <c r="A163" s="2">
         <v>41425</v>
       </c>
       <c r="B163">
@@ -2570,7 +2568,7 @@
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A164" s="1">
+      <c r="A164" s="2">
         <v>41453</v>
       </c>
       <c r="B164">
@@ -2583,7 +2581,7 @@
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A165" s="1">
+      <c r="A165" s="2">
         <v>41486</v>
       </c>
       <c r="B165">
@@ -2596,7 +2594,7 @@
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A166" s="1">
+      <c r="A166" s="2">
         <v>41516</v>
       </c>
       <c r="B166">
@@ -2609,7 +2607,7 @@
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A167" s="1">
+      <c r="A167" s="2">
         <v>41547</v>
       </c>
       <c r="B167">
@@ -2622,7 +2620,7 @@
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A168" s="1">
+      <c r="A168" s="2">
         <v>41578</v>
       </c>
       <c r="B168">
@@ -2635,7 +2633,7 @@
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A169" s="1">
+      <c r="A169" s="2">
         <v>41607</v>
       </c>
       <c r="B169">
@@ -2648,7 +2646,7 @@
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A170" s="1">
+      <c r="A170" s="2">
         <v>41639</v>
       </c>
       <c r="B170">
@@ -2661,7 +2659,7 @@
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A171" s="1">
+      <c r="A171" s="2">
         <v>41670</v>
       </c>
       <c r="B171">
@@ -2674,7 +2672,7 @@
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A172" s="1">
+      <c r="A172" s="2">
         <v>41698</v>
       </c>
       <c r="B172">
@@ -2687,7 +2685,7 @@
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A173" s="1">
+      <c r="A173" s="2">
         <v>41729</v>
       </c>
       <c r="B173">
@@ -2700,7 +2698,7 @@
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A174" s="1">
+      <c r="A174" s="2">
         <v>41759</v>
       </c>
       <c r="B174">
@@ -2713,7 +2711,7 @@
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A175" s="1">
+      <c r="A175" s="2">
         <v>41789</v>
       </c>
       <c r="B175">
@@ -2726,7 +2724,7 @@
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A176" s="1">
+      <c r="A176" s="2">
         <v>41820</v>
       </c>
       <c r="B176">
@@ -2739,7 +2737,7 @@
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A177" s="1">
+      <c r="A177" s="2">
         <v>41851</v>
       </c>
       <c r="B177">
@@ -2752,7 +2750,7 @@
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A178" s="1">
+      <c r="A178" s="2">
         <v>41880</v>
       </c>
       <c r="B178">
@@ -2765,7 +2763,7 @@
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A179" s="1">
+      <c r="A179" s="2">
         <v>41912</v>
       </c>
       <c r="B179">
@@ -2778,7 +2776,7 @@
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A180" s="1">
+      <c r="A180" s="2">
         <v>41943</v>
       </c>
       <c r="B180">
@@ -2791,7 +2789,7 @@
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A181" s="1">
+      <c r="A181" s="2">
         <v>41971</v>
       </c>
       <c r="B181">
@@ -2804,7 +2802,7 @@
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A182" s="1">
+      <c r="A182" s="2">
         <v>42004</v>
       </c>
       <c r="B182">
@@ -2817,7 +2815,7 @@
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A183" s="1">
+      <c r="A183" s="2">
         <v>42034</v>
       </c>
       <c r="B183">
@@ -2830,7 +2828,7 @@
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A184" s="1">
+      <c r="A184" s="2">
         <v>42062</v>
       </c>
       <c r="B184">
@@ -2843,7 +2841,7 @@
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A185" s="1">
+      <c r="A185" s="2">
         <v>42094</v>
       </c>
       <c r="B185">
@@ -2856,7 +2854,7 @@
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A186" s="1">
+      <c r="A186" s="2">
         <v>42124</v>
       </c>
       <c r="B186">
@@ -2869,7 +2867,7 @@
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A187" s="1">
+      <c r="A187" s="2">
         <v>42153</v>
       </c>
       <c r="B187">
@@ -2882,7 +2880,7 @@
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A188" s="1">
+      <c r="A188" s="2">
         <v>42185</v>
       </c>
       <c r="B188">
@@ -2895,7 +2893,7 @@
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A189" s="1">
+      <c r="A189" s="2">
         <v>42216</v>
       </c>
       <c r="B189">
@@ -2908,7 +2906,7 @@
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A190" s="1">
+      <c r="A190" s="2">
         <v>42247</v>
       </c>
       <c r="B190">
@@ -2921,7 +2919,7 @@
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A191" s="1">
+      <c r="A191" s="2">
         <v>42277</v>
       </c>
       <c r="B191">
@@ -2934,7 +2932,7 @@
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A192" s="1">
+      <c r="A192" s="2">
         <v>42307</v>
       </c>
       <c r="B192">
@@ -2947,7 +2945,7 @@
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A193" s="1">
+      <c r="A193" s="2">
         <v>42338</v>
       </c>
       <c r="B193">
@@ -2960,7 +2958,7 @@
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A194" s="1">
+      <c r="A194" s="2">
         <v>42369</v>
       </c>
       <c r="B194">
@@ -2973,7 +2971,7 @@
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A195" s="1">
+      <c r="A195" s="2">
         <v>42398</v>
       </c>
       <c r="B195">
@@ -2986,7 +2984,7 @@
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A196" s="1">
+      <c r="A196" s="2">
         <v>42429</v>
       </c>
       <c r="B196">
@@ -2999,7 +2997,7 @@
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A197" s="1">
+      <c r="A197" s="2">
         <v>42460</v>
       </c>
       <c r="B197">
@@ -3012,7 +3010,7 @@
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A198" s="1">
+      <c r="A198" s="2">
         <v>42489</v>
       </c>
       <c r="B198">
@@ -3025,7 +3023,7 @@
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A199" s="1">
+      <c r="A199" s="2">
         <v>42521</v>
       </c>
       <c r="B199">
@@ -3038,7 +3036,7 @@
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A200" s="1">
+      <c r="A200" s="2">
         <v>42551</v>
       </c>
       <c r="B200">
@@ -3051,7 +3049,7 @@
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A201" s="1">
+      <c r="A201" s="2">
         <v>42580</v>
       </c>
       <c r="B201">
@@ -3064,7 +3062,7 @@
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A202" s="1">
+      <c r="A202" s="2">
         <v>42613</v>
       </c>
       <c r="B202">
@@ -3077,7 +3075,7 @@
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A203" s="1">
+      <c r="A203" s="2">
         <v>42643</v>
       </c>
       <c r="B203">
@@ -3090,7 +3088,7 @@
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A204" s="1">
+      <c r="A204" s="2">
         <v>42674</v>
       </c>
       <c r="B204">
@@ -3103,7 +3101,7 @@
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A205" s="1">
+      <c r="A205" s="2">
         <v>42704</v>
       </c>
       <c r="B205">
@@ -3116,7 +3114,7 @@
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A206" s="1">
+      <c r="A206" s="2">
         <v>42734</v>
       </c>
       <c r="B206">
@@ -3129,7 +3127,7 @@
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A207" s="1">
+      <c r="A207" s="2">
         <v>42766</v>
       </c>
       <c r="B207">
@@ -3142,7 +3140,7 @@
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A208" s="1">
+      <c r="A208" s="2">
         <v>42794</v>
       </c>
       <c r="B208">
@@ -3155,7 +3153,7 @@
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A209" s="1">
+      <c r="A209" s="2">
         <v>42825</v>
       </c>
       <c r="B209">
@@ -3168,7 +3166,7 @@
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A210" s="1">
+      <c r="A210" s="2">
         <v>42853</v>
       </c>
       <c r="B210">
@@ -3181,7 +3179,7 @@
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A211" s="1">
+      <c r="A211" s="2">
         <v>42886</v>
       </c>
       <c r="B211">
@@ -3194,7 +3192,7 @@
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A212" s="1">
+      <c r="A212" s="2">
         <v>42916</v>
       </c>
       <c r="B212">
@@ -3207,7 +3205,7 @@
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A213" s="1">
+      <c r="A213" s="2">
         <v>42947</v>
       </c>
       <c r="B213">
@@ -3220,7 +3218,7 @@
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A214" s="1">
+      <c r="A214" s="2">
         <v>42978</v>
       </c>
       <c r="B214">
@@ -3233,7 +3231,7 @@
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A215" s="1">
+      <c r="A215" s="2">
         <v>43007</v>
       </c>
       <c r="B215">
@@ -3246,7 +3244,7 @@
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A216" s="1">
+      <c r="A216" s="2">
         <v>43039</v>
       </c>
       <c r="B216">
@@ -3259,7 +3257,7 @@
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A217" s="1">
+      <c r="A217" s="2">
         <v>43069</v>
       </c>
       <c r="B217">
@@ -3272,7 +3270,7 @@
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A218" s="1">
+      <c r="A218" s="2">
         <v>43098</v>
       </c>
       <c r="B218">
@@ -3285,7 +3283,7 @@
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A219" s="1">
+      <c r="A219" s="2">
         <v>43131</v>
       </c>
       <c r="B219">
@@ -3298,7 +3296,7 @@
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A220" s="1">
+      <c r="A220" s="2">
         <v>43159</v>
       </c>
       <c r="B220">
@@ -3311,7 +3309,7 @@
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A221" s="1">
+      <c r="A221" s="2">
         <v>43189</v>
       </c>
       <c r="B221">
@@ -3324,7 +3322,7 @@
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A222" s="1">
+      <c r="A222" s="2">
         <v>43220</v>
       </c>
       <c r="B222">
@@ -3337,7 +3335,7 @@
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A223" s="1">
+      <c r="A223" s="2">
         <v>43251</v>
       </c>
       <c r="B223">
@@ -3350,7 +3348,7 @@
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A224" s="1">
+      <c r="A224" s="2">
         <v>43280</v>
       </c>
       <c r="B224">
@@ -3363,7 +3361,7 @@
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A225" s="1">
+      <c r="A225" s="2">
         <v>43312</v>
       </c>
       <c r="B225">
@@ -3376,7 +3374,7 @@
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A226" s="1">
+      <c r="A226" s="2">
         <v>43343</v>
       </c>
       <c r="B226">
@@ -3389,7 +3387,7 @@
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A227" s="1">
+      <c r="A227" s="2">
         <v>43371</v>
       </c>
       <c r="B227">
@@ -3402,7 +3400,7 @@
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A228" s="1">
+      <c r="A228" s="2">
         <v>43404</v>
       </c>
       <c r="B228">
@@ -3415,7 +3413,7 @@
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A229" s="1">
+      <c r="A229" s="2">
         <v>43434</v>
       </c>
       <c r="B229">
@@ -3428,7 +3426,7 @@
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A230" s="1">
+      <c r="A230" s="2">
         <v>43465</v>
       </c>
       <c r="B230">
@@ -3441,7 +3439,7 @@
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A231" s="1">
+      <c r="A231" s="2">
         <v>43496</v>
       </c>
       <c r="B231">
@@ -3454,7 +3452,7 @@
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A232" s="1">
+      <c r="A232" s="2">
         <v>43524</v>
       </c>
       <c r="B232">
@@ -3467,7 +3465,7 @@
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A233" s="1">
+      <c r="A233" s="2">
         <v>43553</v>
       </c>
       <c r="B233">
@@ -3480,7 +3478,7 @@
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A234" s="1">
+      <c r="A234" s="2">
         <v>43585</v>
       </c>
       <c r="B234">
@@ -3493,7 +3491,7 @@
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A235" s="1">
+      <c r="A235" s="2">
         <v>43616</v>
       </c>
       <c r="B235">
@@ -3506,7 +3504,7 @@
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A236" s="1">
+      <c r="A236" s="2">
         <v>43644</v>
       </c>
       <c r="B236">
@@ -3519,7 +3517,7 @@
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A237" s="1">
+      <c r="A237" s="2">
         <v>43677</v>
       </c>
       <c r="B237">
@@ -3532,7 +3530,7 @@
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A238" s="1">
+      <c r="A238" s="2">
         <v>43707</v>
       </c>
       <c r="B238">
@@ -3545,7 +3543,7 @@
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A239" s="1">
+      <c r="A239" s="2">
         <v>43738</v>
       </c>
       <c r="B239">
@@ -3558,7 +3556,7 @@
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A240" s="1">
+      <c r="A240" s="2">
         <v>43769</v>
       </c>
       <c r="B240">
@@ -3571,7 +3569,7 @@
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A241" s="1">
+      <c r="A241" s="2">
         <v>43799</v>
       </c>
       <c r="B241">
@@ -3584,7 +3582,7 @@
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A242" s="1">
+      <c r="A242" s="2">
         <v>43830</v>
       </c>
       <c r="B242">
@@ -3597,7 +3595,7 @@
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A243" s="1">
+      <c r="A243" s="2">
         <v>43861</v>
       </c>
       <c r="B243">
@@ -3610,7 +3608,7 @@
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A244" s="1">
+      <c r="A244" s="2">
         <v>43889</v>
       </c>
       <c r="B244">
@@ -3623,7 +3621,7 @@
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A245" s="1">
+      <c r="A245" s="2">
         <v>43921</v>
       </c>
       <c r="B245">
@@ -3636,7 +3634,7 @@
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A246" s="1">
+      <c r="A246" s="2">
         <v>43951</v>
       </c>
       <c r="B246">
@@ -3646,6 +3644,32 @@
       <c r="C246">
         <f>[1]!s_val_pe_ttm($A$1,A246)</f>
         <v>18.361400604248047</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A247" s="2">
+        <v>43980</v>
+      </c>
+      <c r="B247">
+        <f>[1]!S_DQ_Close($A$1,A247)</f>
+        <v>4258.3734999999997</v>
+      </c>
+      <c r="C247">
+        <f>[1]!s_val_pe_ttm($A$1,A247)</f>
+        <v>18.110200881958008</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A248" s="1">
+        <v>44012</v>
+      </c>
+      <c r="B248">
+        <f>[1]!S_DQ_Close($A$1,A248)</f>
+        <v>4616.4142000000002</v>
+      </c>
+      <c r="C248">
+        <f>[1]!s_val_pe_ttm($A$1,A248)</f>
+        <v>19.623100280761719</v>
       </c>
     </row>
   </sheetData>

--- a/strategy/全球购策略/data/wind.xlsx
+++ b/strategy/全球购策略/data/wind.xlsx
@@ -60,6 +60,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -104,10 +107,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -436,10 +442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C248"/>
+  <dimension ref="A1:C250"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C237" sqref="C237"/>
+    <sheetView tabSelected="1" topLeftCell="A235" workbookViewId="0">
+      <selection activeCell="C250" sqref="C250"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -461,7 +467,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" s="2">
+      <c r="A2" s="3">
         <f>[1]!TDays("1999-12-01","2019-08-31","Days=Weekdays","Period=M","cols=1;rows=237")</f>
         <v>36525</v>
       </c>
@@ -475,7 +481,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" s="2">
+      <c r="A3" s="3">
         <v>36556</v>
       </c>
       <c r="B3">
@@ -488,7 +494,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4" s="2">
+      <c r="A4" s="3">
         <v>36585</v>
       </c>
       <c r="B4">
@@ -501,7 +507,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" s="2">
+      <c r="A5" s="3">
         <v>36616</v>
       </c>
       <c r="B5">
@@ -514,7 +520,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" s="2">
+      <c r="A6" s="3">
         <v>36644</v>
       </c>
       <c r="B6">
@@ -527,7 +533,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" s="2">
+      <c r="A7" s="3">
         <v>36677</v>
       </c>
       <c r="B7">
@@ -540,7 +546,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" s="2">
+      <c r="A8" s="3">
         <v>36707</v>
       </c>
       <c r="B8">
@@ -553,7 +559,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" s="2">
+      <c r="A9" s="3">
         <v>36738</v>
       </c>
       <c r="B9">
@@ -566,7 +572,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A10" s="2">
+      <c r="A10" s="3">
         <v>36769</v>
       </c>
       <c r="B10">
@@ -579,7 +585,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A11" s="2">
+      <c r="A11" s="3">
         <v>36798</v>
       </c>
       <c r="B11">
@@ -592,7 +598,7 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A12" s="2">
+      <c r="A12" s="3">
         <v>36830</v>
       </c>
       <c r="B12">
@@ -605,7 +611,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A13" s="2">
+      <c r="A13" s="3">
         <v>36860</v>
       </c>
       <c r="B13">
@@ -618,7 +624,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A14" s="2">
+      <c r="A14" s="3">
         <v>36889</v>
       </c>
       <c r="B14">
@@ -631,7 +637,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A15" s="2">
+      <c r="A15" s="3">
         <v>36922</v>
       </c>
       <c r="B15">
@@ -644,7 +650,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A16" s="2">
+      <c r="A16" s="3">
         <v>36950</v>
       </c>
       <c r="B16">
@@ -657,7 +663,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A17" s="2">
+      <c r="A17" s="3">
         <v>36980</v>
       </c>
       <c r="B17">
@@ -670,7 +676,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A18" s="2">
+      <c r="A18" s="3">
         <v>37011</v>
       </c>
       <c r="B18">
@@ -683,7 +689,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A19" s="2">
+      <c r="A19" s="3">
         <v>37042</v>
       </c>
       <c r="B19">
@@ -696,7 +702,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A20" s="2">
+      <c r="A20" s="3">
         <v>37071</v>
       </c>
       <c r="B20">
@@ -709,7 +715,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A21" s="2">
+      <c r="A21" s="3">
         <v>37103</v>
       </c>
       <c r="B21">
@@ -722,7 +728,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A22" s="2">
+      <c r="A22" s="3">
         <v>37134</v>
       </c>
       <c r="B22">
@@ -735,7 +741,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A23" s="2">
+      <c r="A23" s="3">
         <v>37162</v>
       </c>
       <c r="B23">
@@ -748,7 +754,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A24" s="2">
+      <c r="A24" s="3">
         <v>37195</v>
       </c>
       <c r="B24">
@@ -761,7 +767,7 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A25" s="2">
+      <c r="A25" s="3">
         <v>37225</v>
       </c>
       <c r="B25">
@@ -774,7 +780,7 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A26" s="2">
+      <c r="A26" s="3">
         <v>37256</v>
       </c>
       <c r="B26">
@@ -787,7 +793,7 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A27" s="2">
+      <c r="A27" s="3">
         <v>37287</v>
       </c>
       <c r="B27">
@@ -800,7 +806,7 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A28" s="2">
+      <c r="A28" s="3">
         <v>37315</v>
       </c>
       <c r="B28">
@@ -813,7 +819,7 @@
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A29" s="2">
+      <c r="A29" s="3">
         <v>37344</v>
       </c>
       <c r="B29">
@@ -826,7 +832,7 @@
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A30" s="2">
+      <c r="A30" s="3">
         <v>37376</v>
       </c>
       <c r="B30">
@@ -839,7 +845,7 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A31" s="2">
+      <c r="A31" s="3">
         <v>37407</v>
       </c>
       <c r="B31">
@@ -852,7 +858,7 @@
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A32" s="2">
+      <c r="A32" s="3">
         <v>37435</v>
       </c>
       <c r="B32">
@@ -865,7 +871,7 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A33" s="2">
+      <c r="A33" s="3">
         <v>37468</v>
       </c>
       <c r="B33">
@@ -878,7 +884,7 @@
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A34" s="2">
+      <c r="A34" s="3">
         <v>37498</v>
       </c>
       <c r="B34">
@@ -891,7 +897,7 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A35" s="2">
+      <c r="A35" s="3">
         <v>37529</v>
       </c>
       <c r="B35">
@@ -904,7 +910,7 @@
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A36" s="2">
+      <c r="A36" s="3">
         <v>37560</v>
       </c>
       <c r="B36">
@@ -917,7 +923,7 @@
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A37" s="2">
+      <c r="A37" s="3">
         <v>37589</v>
       </c>
       <c r="B37">
@@ -930,7 +936,7 @@
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A38" s="2">
+      <c r="A38" s="3">
         <v>37621</v>
       </c>
       <c r="B38">
@@ -943,7 +949,7 @@
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A39" s="2">
+      <c r="A39" s="3">
         <v>37652</v>
       </c>
       <c r="B39">
@@ -956,7 +962,7 @@
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A40" s="2">
+      <c r="A40" s="3">
         <v>37680</v>
       </c>
       <c r="B40">
@@ -969,7 +975,7 @@
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A41" s="2">
+      <c r="A41" s="3">
         <v>37711</v>
       </c>
       <c r="B41">
@@ -982,7 +988,7 @@
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A42" s="2">
+      <c r="A42" s="3">
         <v>37741</v>
       </c>
       <c r="B42">
@@ -995,7 +1001,7 @@
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A43" s="2">
+      <c r="A43" s="3">
         <v>37771</v>
       </c>
       <c r="B43">
@@ -1008,7 +1014,7 @@
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A44" s="2">
+      <c r="A44" s="3">
         <v>37802</v>
       </c>
       <c r="B44">
@@ -1021,7 +1027,7 @@
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A45" s="2">
+      <c r="A45" s="3">
         <v>37833</v>
       </c>
       <c r="B45">
@@ -1034,7 +1040,7 @@
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A46" s="2">
+      <c r="A46" s="3">
         <v>37862</v>
       </c>
       <c r="B46">
@@ -1047,7 +1053,7 @@
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A47" s="2">
+      <c r="A47" s="3">
         <v>37894</v>
       </c>
       <c r="B47">
@@ -1060,7 +1066,7 @@
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A48" s="2">
+      <c r="A48" s="3">
         <v>37925</v>
       </c>
       <c r="B48">
@@ -1073,7 +1079,7 @@
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A49" s="2">
+      <c r="A49" s="3">
         <v>37953</v>
       </c>
       <c r="B49">
@@ -1086,7 +1092,7 @@
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A50" s="2">
+      <c r="A50" s="3">
         <v>37986</v>
       </c>
       <c r="B50">
@@ -1099,7 +1105,7 @@
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A51" s="2">
+      <c r="A51" s="3">
         <v>38016</v>
       </c>
       <c r="B51">
@@ -1112,7 +1118,7 @@
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A52" s="2">
+      <c r="A52" s="3">
         <v>38044</v>
       </c>
       <c r="B52">
@@ -1125,7 +1131,7 @@
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A53" s="2">
+      <c r="A53" s="3">
         <v>38077</v>
       </c>
       <c r="B53">
@@ -1138,7 +1144,7 @@
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A54" s="2">
+      <c r="A54" s="3">
         <v>38107</v>
       </c>
       <c r="B54">
@@ -1151,7 +1157,7 @@
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A55" s="2">
+      <c r="A55" s="3">
         <v>38138</v>
       </c>
       <c r="B55">
@@ -1164,7 +1170,7 @@
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A56" s="2">
+      <c r="A56" s="3">
         <v>38168</v>
       </c>
       <c r="B56">
@@ -1177,7 +1183,7 @@
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A57" s="2">
+      <c r="A57" s="3">
         <v>38198</v>
       </c>
       <c r="B57">
@@ -1190,7 +1196,7 @@
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A58" s="2">
+      <c r="A58" s="3">
         <v>38230</v>
       </c>
       <c r="B58">
@@ -1203,7 +1209,7 @@
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A59" s="2">
+      <c r="A59" s="3">
         <v>38260</v>
       </c>
       <c r="B59">
@@ -1216,7 +1222,7 @@
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A60" s="2">
+      <c r="A60" s="3">
         <v>38289</v>
       </c>
       <c r="B60">
@@ -1229,7 +1235,7 @@
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A61" s="2">
+      <c r="A61" s="3">
         <v>38321</v>
       </c>
       <c r="B61">
@@ -1242,7 +1248,7 @@
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A62" s="2">
+      <c r="A62" s="3">
         <v>38352</v>
       </c>
       <c r="B62">
@@ -1255,7 +1261,7 @@
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A63" s="2">
+      <c r="A63" s="3">
         <v>38383</v>
       </c>
       <c r="B63">
@@ -1268,7 +1274,7 @@
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A64" s="2">
+      <c r="A64" s="3">
         <v>38411</v>
       </c>
       <c r="B64">
@@ -1281,7 +1287,7 @@
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A65" s="2">
+      <c r="A65" s="3">
         <v>38442</v>
       </c>
       <c r="B65">
@@ -1294,7 +1300,7 @@
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A66" s="2">
+      <c r="A66" s="3">
         <v>38471</v>
       </c>
       <c r="B66">
@@ -1307,7 +1313,7 @@
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A67" s="2">
+      <c r="A67" s="3">
         <v>38503</v>
       </c>
       <c r="B67">
@@ -1320,7 +1326,7 @@
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A68" s="2">
+      <c r="A68" s="3">
         <v>38533</v>
       </c>
       <c r="B68">
@@ -1333,7 +1339,7 @@
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A69" s="2">
+      <c r="A69" s="3">
         <v>38562</v>
       </c>
       <c r="B69">
@@ -1346,7 +1352,7 @@
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A70" s="2">
+      <c r="A70" s="3">
         <v>38595</v>
       </c>
       <c r="B70">
@@ -1359,7 +1365,7 @@
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A71" s="2">
+      <c r="A71" s="3">
         <v>38625</v>
       </c>
       <c r="B71">
@@ -1372,7 +1378,7 @@
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A72" s="2">
+      <c r="A72" s="3">
         <v>38656</v>
       </c>
       <c r="B72">
@@ -1385,7 +1391,7 @@
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A73" s="2">
+      <c r="A73" s="3">
         <v>38686</v>
       </c>
       <c r="B73">
@@ -1398,7 +1404,7 @@
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A74" s="2">
+      <c r="A74" s="3">
         <v>38716</v>
       </c>
       <c r="B74">
@@ -1411,7 +1417,7 @@
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A75" s="2">
+      <c r="A75" s="3">
         <v>38748</v>
       </c>
       <c r="B75">
@@ -1424,7 +1430,7 @@
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A76" s="2">
+      <c r="A76" s="3">
         <v>38776</v>
       </c>
       <c r="B76">
@@ -1437,7 +1443,7 @@
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A77" s="2">
+      <c r="A77" s="3">
         <v>38807</v>
       </c>
       <c r="B77">
@@ -1450,7 +1456,7 @@
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A78" s="2">
+      <c r="A78" s="3">
         <v>38835</v>
       </c>
       <c r="B78">
@@ -1463,7 +1469,7 @@
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A79" s="2">
+      <c r="A79" s="3">
         <v>38868</v>
       </c>
       <c r="B79">
@@ -1476,7 +1482,7 @@
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A80" s="2">
+      <c r="A80" s="3">
         <v>38898</v>
       </c>
       <c r="B80">
@@ -1489,7 +1495,7 @@
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A81" s="2">
+      <c r="A81" s="3">
         <v>38929</v>
       </c>
       <c r="B81">
@@ -1502,7 +1508,7 @@
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A82" s="2">
+      <c r="A82" s="3">
         <v>38960</v>
       </c>
       <c r="B82">
@@ -1515,7 +1521,7 @@
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A83" s="2">
+      <c r="A83" s="3">
         <v>38989</v>
       </c>
       <c r="B83">
@@ -1528,7 +1534,7 @@
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A84" s="2">
+      <c r="A84" s="3">
         <v>39021</v>
       </c>
       <c r="B84">
@@ -1541,7 +1547,7 @@
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A85" s="2">
+      <c r="A85" s="3">
         <v>39051</v>
       </c>
       <c r="B85">
@@ -1554,7 +1560,7 @@
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A86" s="2">
+      <c r="A86" s="3">
         <v>39080</v>
       </c>
       <c r="B86">
@@ -1567,7 +1573,7 @@
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A87" s="2">
+      <c r="A87" s="3">
         <v>39113</v>
       </c>
       <c r="B87">
@@ -1580,7 +1586,7 @@
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A88" s="2">
+      <c r="A88" s="3">
         <v>39141</v>
       </c>
       <c r="B88">
@@ -1593,7 +1599,7 @@
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A89" s="2">
+      <c r="A89" s="3">
         <v>39171</v>
       </c>
       <c r="B89">
@@ -1606,7 +1612,7 @@
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A90" s="2">
+      <c r="A90" s="3">
         <v>39202</v>
       </c>
       <c r="B90">
@@ -1619,7 +1625,7 @@
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A91" s="2">
+      <c r="A91" s="3">
         <v>39233</v>
       </c>
       <c r="B91">
@@ -1632,7 +1638,7 @@
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A92" s="2">
+      <c r="A92" s="3">
         <v>39262</v>
       </c>
       <c r="B92">
@@ -1645,7 +1651,7 @@
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A93" s="2">
+      <c r="A93" s="3">
         <v>39294</v>
       </c>
       <c r="B93">
@@ -1658,7 +1664,7 @@
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A94" s="2">
+      <c r="A94" s="3">
         <v>39325</v>
       </c>
       <c r="B94">
@@ -1671,7 +1677,7 @@
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A95" s="2">
+      <c r="A95" s="3">
         <v>39353</v>
       </c>
       <c r="B95">
@@ -1684,7 +1690,7 @@
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A96" s="2">
+      <c r="A96" s="3">
         <v>39386</v>
       </c>
       <c r="B96">
@@ -1697,7 +1703,7 @@
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A97" s="2">
+      <c r="A97" s="3">
         <v>39416</v>
       </c>
       <c r="B97">
@@ -1710,7 +1716,7 @@
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A98" s="2">
+      <c r="A98" s="3">
         <v>39447</v>
       </c>
       <c r="B98">
@@ -1723,7 +1729,7 @@
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A99" s="2">
+      <c r="A99" s="3">
         <v>39478</v>
       </c>
       <c r="B99">
@@ -1736,7 +1742,7 @@
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A100" s="2">
+      <c r="A100" s="3">
         <v>39507</v>
       </c>
       <c r="B100">
@@ -1749,7 +1755,7 @@
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A101" s="2">
+      <c r="A101" s="3">
         <v>39538</v>
       </c>
       <c r="B101">
@@ -1762,7 +1768,7 @@
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A102" s="2">
+      <c r="A102" s="3">
         <v>39568</v>
       </c>
       <c r="B102">
@@ -1775,7 +1781,7 @@
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A103" s="2">
+      <c r="A103" s="3">
         <v>39598</v>
       </c>
       <c r="B103">
@@ -1788,7 +1794,7 @@
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A104" s="2">
+      <c r="A104" s="3">
         <v>39629</v>
       </c>
       <c r="B104">
@@ -1801,7 +1807,7 @@
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A105" s="2">
+      <c r="A105" s="3">
         <v>39660</v>
       </c>
       <c r="B105">
@@ -1814,7 +1820,7 @@
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A106" s="2">
+      <c r="A106" s="3">
         <v>39689</v>
       </c>
       <c r="B106">
@@ -1827,7 +1833,7 @@
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A107" s="2">
+      <c r="A107" s="3">
         <v>39721</v>
       </c>
       <c r="B107">
@@ -1840,7 +1846,7 @@
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A108" s="2">
+      <c r="A108" s="3">
         <v>39752</v>
       </c>
       <c r="B108">
@@ -1853,7 +1859,7 @@
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A109" s="2">
+      <c r="A109" s="3">
         <v>39780</v>
       </c>
       <c r="B109">
@@ -1866,7 +1872,7 @@
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A110" s="2">
+      <c r="A110" s="3">
         <v>39813</v>
       </c>
       <c r="B110">
@@ -1879,7 +1885,7 @@
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A111" s="2">
+      <c r="A111" s="3">
         <v>39843</v>
       </c>
       <c r="B111">
@@ -1892,7 +1898,7 @@
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A112" s="2">
+      <c r="A112" s="3">
         <v>39871</v>
       </c>
       <c r="B112">
@@ -1905,7 +1911,7 @@
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A113" s="2">
+      <c r="A113" s="3">
         <v>39903</v>
       </c>
       <c r="B113">
@@ -1918,7 +1924,7 @@
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A114" s="2">
+      <c r="A114" s="3">
         <v>39933</v>
       </c>
       <c r="B114">
@@ -1931,7 +1937,7 @@
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A115" s="2">
+      <c r="A115" s="3">
         <v>39962</v>
       </c>
       <c r="B115">
@@ -1944,7 +1950,7 @@
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A116" s="2">
+      <c r="A116" s="3">
         <v>39994</v>
       </c>
       <c r="B116">
@@ -1957,7 +1963,7 @@
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A117" s="2">
+      <c r="A117" s="3">
         <v>40025</v>
       </c>
       <c r="B117">
@@ -1970,7 +1976,7 @@
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A118" s="2">
+      <c r="A118" s="3">
         <v>40056</v>
       </c>
       <c r="B118">
@@ -1983,7 +1989,7 @@
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A119" s="2">
+      <c r="A119" s="3">
         <v>40086</v>
       </c>
       <c r="B119">
@@ -1996,7 +2002,7 @@
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A120" s="2">
+      <c r="A120" s="3">
         <v>40116</v>
       </c>
       <c r="B120">
@@ -2009,7 +2015,7 @@
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A121" s="2">
+      <c r="A121" s="3">
         <v>40147</v>
       </c>
       <c r="B121">
@@ -2022,7 +2028,7 @@
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A122" s="2">
+      <c r="A122" s="3">
         <v>40178</v>
       </c>
       <c r="B122">
@@ -2035,7 +2041,7 @@
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A123" s="2">
+      <c r="A123" s="3">
         <v>40207</v>
       </c>
       <c r="B123">
@@ -2048,7 +2054,7 @@
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A124" s="2">
+      <c r="A124" s="3">
         <v>40235</v>
       </c>
       <c r="B124">
@@ -2061,7 +2067,7 @@
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A125" s="2">
+      <c r="A125" s="3">
         <v>40268</v>
       </c>
       <c r="B125">
@@ -2074,7 +2080,7 @@
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A126" s="2">
+      <c r="A126" s="3">
         <v>40298</v>
       </c>
       <c r="B126">
@@ -2087,7 +2093,7 @@
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A127" s="2">
+      <c r="A127" s="3">
         <v>40329</v>
       </c>
       <c r="B127">
@@ -2100,7 +2106,7 @@
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A128" s="2">
+      <c r="A128" s="3">
         <v>40359</v>
       </c>
       <c r="B128">
@@ -2113,7 +2119,7 @@
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A129" s="2">
+      <c r="A129" s="3">
         <v>40389</v>
       </c>
       <c r="B129">
@@ -2126,7 +2132,7 @@
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A130" s="2">
+      <c r="A130" s="3">
         <v>40421</v>
       </c>
       <c r="B130">
@@ -2139,7 +2145,7 @@
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A131" s="2">
+      <c r="A131" s="3">
         <v>40451</v>
       </c>
       <c r="B131">
@@ -2152,7 +2158,7 @@
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A132" s="2">
+      <c r="A132" s="3">
         <v>40480</v>
       </c>
       <c r="B132">
@@ -2165,7 +2171,7 @@
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A133" s="2">
+      <c r="A133" s="3">
         <v>40512</v>
       </c>
       <c r="B133">
@@ -2178,7 +2184,7 @@
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A134" s="2">
+      <c r="A134" s="3">
         <v>40543</v>
       </c>
       <c r="B134">
@@ -2191,7 +2197,7 @@
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A135" s="2">
+      <c r="A135" s="3">
         <v>40574</v>
       </c>
       <c r="B135">
@@ -2204,7 +2210,7 @@
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A136" s="2">
+      <c r="A136" s="3">
         <v>40602</v>
       </c>
       <c r="B136">
@@ -2217,7 +2223,7 @@
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A137" s="2">
+      <c r="A137" s="3">
         <v>40633</v>
       </c>
       <c r="B137">
@@ -2230,7 +2236,7 @@
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A138" s="2">
+      <c r="A138" s="3">
         <v>40662</v>
       </c>
       <c r="B138">
@@ -2243,7 +2249,7 @@
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A139" s="2">
+      <c r="A139" s="3">
         <v>40694</v>
       </c>
       <c r="B139">
@@ -2256,7 +2262,7 @@
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A140" s="2">
+      <c r="A140" s="3">
         <v>40724</v>
       </c>
       <c r="B140">
@@ -2269,7 +2275,7 @@
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A141" s="2">
+      <c r="A141" s="3">
         <v>40753</v>
       </c>
       <c r="B141">
@@ -2282,7 +2288,7 @@
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A142" s="2">
+      <c r="A142" s="3">
         <v>40786</v>
       </c>
       <c r="B142">
@@ -2295,7 +2301,7 @@
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A143" s="2">
+      <c r="A143" s="3">
         <v>40816</v>
       </c>
       <c r="B143">
@@ -2308,7 +2314,7 @@
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A144" s="2">
+      <c r="A144" s="3">
         <v>40847</v>
       </c>
       <c r="B144">
@@ -2321,7 +2327,7 @@
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A145" s="2">
+      <c r="A145" s="3">
         <v>40877</v>
       </c>
       <c r="B145">
@@ -2334,7 +2340,7 @@
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A146" s="2">
+      <c r="A146" s="3">
         <v>40907</v>
       </c>
       <c r="B146">
@@ -2347,7 +2353,7 @@
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A147" s="2">
+      <c r="A147" s="3">
         <v>40939</v>
       </c>
       <c r="B147">
@@ -2360,7 +2366,7 @@
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A148" s="2">
+      <c r="A148" s="3">
         <v>40968</v>
       </c>
       <c r="B148">
@@ -2373,7 +2379,7 @@
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A149" s="2">
+      <c r="A149" s="3">
         <v>40998</v>
       </c>
       <c r="B149">
@@ -2386,7 +2392,7 @@
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A150" s="2">
+      <c r="A150" s="3">
         <v>41029</v>
       </c>
       <c r="B150">
@@ -2399,7 +2405,7 @@
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A151" s="2">
+      <c r="A151" s="3">
         <v>41060</v>
       </c>
       <c r="B151">
@@ -2412,7 +2418,7 @@
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A152" s="2">
+      <c r="A152" s="3">
         <v>41089</v>
       </c>
       <c r="B152">
@@ -2425,7 +2431,7 @@
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A153" s="2">
+      <c r="A153" s="3">
         <v>41121</v>
       </c>
       <c r="B153">
@@ -2438,7 +2444,7 @@
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A154" s="2">
+      <c r="A154" s="3">
         <v>41152</v>
       </c>
       <c r="B154">
@@ -2451,7 +2457,7 @@
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A155" s="2">
+      <c r="A155" s="3">
         <v>41180</v>
       </c>
       <c r="B155">
@@ -2464,7 +2470,7 @@
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A156" s="2">
+      <c r="A156" s="3">
         <v>41213</v>
       </c>
       <c r="B156">
@@ -2477,7 +2483,7 @@
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A157" s="2">
+      <c r="A157" s="3">
         <v>41243</v>
       </c>
       <c r="B157">
@@ -2490,7 +2496,7 @@
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A158" s="2">
+      <c r="A158" s="3">
         <v>41274</v>
       </c>
       <c r="B158">
@@ -2503,7 +2509,7 @@
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A159" s="2">
+      <c r="A159" s="3">
         <v>41305</v>
       </c>
       <c r="B159">
@@ -2516,7 +2522,7 @@
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A160" s="2">
+      <c r="A160" s="3">
         <v>41333</v>
       </c>
       <c r="B160">
@@ -2529,7 +2535,7 @@
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A161" s="2">
+      <c r="A161" s="3">
         <v>41362</v>
       </c>
       <c r="B161">
@@ -2542,7 +2548,7 @@
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A162" s="2">
+      <c r="A162" s="3">
         <v>41394</v>
       </c>
       <c r="B162">
@@ -2555,7 +2561,7 @@
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A163" s="2">
+      <c r="A163" s="3">
         <v>41425</v>
       </c>
       <c r="B163">
@@ -2568,7 +2574,7 @@
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A164" s="2">
+      <c r="A164" s="3">
         <v>41453</v>
       </c>
       <c r="B164">
@@ -2581,7 +2587,7 @@
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A165" s="2">
+      <c r="A165" s="3">
         <v>41486</v>
       </c>
       <c r="B165">
@@ -2594,7 +2600,7 @@
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A166" s="2">
+      <c r="A166" s="3">
         <v>41516</v>
       </c>
       <c r="B166">
@@ -2607,7 +2613,7 @@
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A167" s="2">
+      <c r="A167" s="3">
         <v>41547</v>
       </c>
       <c r="B167">
@@ -2620,7 +2626,7 @@
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A168" s="2">
+      <c r="A168" s="3">
         <v>41578</v>
       </c>
       <c r="B168">
@@ -2633,7 +2639,7 @@
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A169" s="2">
+      <c r="A169" s="3">
         <v>41607</v>
       </c>
       <c r="B169">
@@ -2646,7 +2652,7 @@
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A170" s="2">
+      <c r="A170" s="3">
         <v>41639</v>
       </c>
       <c r="B170">
@@ -2659,7 +2665,7 @@
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A171" s="2">
+      <c r="A171" s="3">
         <v>41670</v>
       </c>
       <c r="B171">
@@ -2672,7 +2678,7 @@
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A172" s="2">
+      <c r="A172" s="3">
         <v>41698</v>
       </c>
       <c r="B172">
@@ -2685,7 +2691,7 @@
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A173" s="2">
+      <c r="A173" s="3">
         <v>41729</v>
       </c>
       <c r="B173">
@@ -2698,7 +2704,7 @@
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A174" s="2">
+      <c r="A174" s="3">
         <v>41759</v>
       </c>
       <c r="B174">
@@ -2711,7 +2717,7 @@
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A175" s="2">
+      <c r="A175" s="3">
         <v>41789</v>
       </c>
       <c r="B175">
@@ -2724,7 +2730,7 @@
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A176" s="2">
+      <c r="A176" s="3">
         <v>41820</v>
       </c>
       <c r="B176">
@@ -2737,7 +2743,7 @@
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A177" s="2">
+      <c r="A177" s="3">
         <v>41851</v>
       </c>
       <c r="B177">
@@ -2750,7 +2756,7 @@
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A178" s="2">
+      <c r="A178" s="3">
         <v>41880</v>
       </c>
       <c r="B178">
@@ -2763,7 +2769,7 @@
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A179" s="2">
+      <c r="A179" s="3">
         <v>41912</v>
       </c>
       <c r="B179">
@@ -2776,7 +2782,7 @@
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A180" s="2">
+      <c r="A180" s="3">
         <v>41943</v>
       </c>
       <c r="B180">
@@ -2789,7 +2795,7 @@
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A181" s="2">
+      <c r="A181" s="3">
         <v>41971</v>
       </c>
       <c r="B181">
@@ -2802,7 +2808,7 @@
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A182" s="2">
+      <c r="A182" s="3">
         <v>42004</v>
       </c>
       <c r="B182">
@@ -2815,7 +2821,7 @@
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A183" s="2">
+      <c r="A183" s="3">
         <v>42034</v>
       </c>
       <c r="B183">
@@ -2828,7 +2834,7 @@
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A184" s="2">
+      <c r="A184" s="3">
         <v>42062</v>
       </c>
       <c r="B184">
@@ -2841,7 +2847,7 @@
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A185" s="2">
+      <c r="A185" s="3">
         <v>42094</v>
       </c>
       <c r="B185">
@@ -2854,7 +2860,7 @@
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A186" s="2">
+      <c r="A186" s="3">
         <v>42124</v>
       </c>
       <c r="B186">
@@ -2867,7 +2873,7 @@
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A187" s="2">
+      <c r="A187" s="3">
         <v>42153</v>
       </c>
       <c r="B187">
@@ -2880,7 +2886,7 @@
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A188" s="2">
+      <c r="A188" s="3">
         <v>42185</v>
       </c>
       <c r="B188">
@@ -2893,7 +2899,7 @@
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A189" s="2">
+      <c r="A189" s="3">
         <v>42216</v>
       </c>
       <c r="B189">
@@ -2906,7 +2912,7 @@
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A190" s="2">
+      <c r="A190" s="3">
         <v>42247</v>
       </c>
       <c r="B190">
@@ -2919,7 +2925,7 @@
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A191" s="2">
+      <c r="A191" s="3">
         <v>42277</v>
       </c>
       <c r="B191">
@@ -2932,7 +2938,7 @@
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A192" s="2">
+      <c r="A192" s="3">
         <v>42307</v>
       </c>
       <c r="B192">
@@ -2945,7 +2951,7 @@
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A193" s="2">
+      <c r="A193" s="3">
         <v>42338</v>
       </c>
       <c r="B193">
@@ -2958,7 +2964,7 @@
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A194" s="2">
+      <c r="A194" s="3">
         <v>42369</v>
       </c>
       <c r="B194">
@@ -2971,7 +2977,7 @@
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A195" s="2">
+      <c r="A195" s="3">
         <v>42398</v>
       </c>
       <c r="B195">
@@ -2984,7 +2990,7 @@
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A196" s="2">
+      <c r="A196" s="3">
         <v>42429</v>
       </c>
       <c r="B196">
@@ -2997,7 +3003,7 @@
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A197" s="2">
+      <c r="A197" s="3">
         <v>42460</v>
       </c>
       <c r="B197">
@@ -3010,7 +3016,7 @@
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A198" s="2">
+      <c r="A198" s="3">
         <v>42489</v>
       </c>
       <c r="B198">
@@ -3023,7 +3029,7 @@
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A199" s="2">
+      <c r="A199" s="3">
         <v>42521</v>
       </c>
       <c r="B199">
@@ -3036,7 +3042,7 @@
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A200" s="2">
+      <c r="A200" s="3">
         <v>42551</v>
       </c>
       <c r="B200">
@@ -3049,7 +3055,7 @@
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A201" s="2">
+      <c r="A201" s="3">
         <v>42580</v>
       </c>
       <c r="B201">
@@ -3062,7 +3068,7 @@
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A202" s="2">
+      <c r="A202" s="3">
         <v>42613</v>
       </c>
       <c r="B202">
@@ -3075,7 +3081,7 @@
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A203" s="2">
+      <c r="A203" s="3">
         <v>42643</v>
       </c>
       <c r="B203">
@@ -3088,7 +3094,7 @@
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A204" s="2">
+      <c r="A204" s="3">
         <v>42674</v>
       </c>
       <c r="B204">
@@ -3101,7 +3107,7 @@
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A205" s="2">
+      <c r="A205" s="3">
         <v>42704</v>
       </c>
       <c r="B205">
@@ -3114,7 +3120,7 @@
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A206" s="2">
+      <c r="A206" s="3">
         <v>42734</v>
       </c>
       <c r="B206">
@@ -3127,7 +3133,7 @@
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A207" s="2">
+      <c r="A207" s="3">
         <v>42766</v>
       </c>
       <c r="B207">
@@ -3140,7 +3146,7 @@
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A208" s="2">
+      <c r="A208" s="3">
         <v>42794</v>
       </c>
       <c r="B208">
@@ -3153,7 +3159,7 @@
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A209" s="2">
+      <c r="A209" s="3">
         <v>42825</v>
       </c>
       <c r="B209">
@@ -3166,7 +3172,7 @@
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A210" s="2">
+      <c r="A210" s="3">
         <v>42853</v>
       </c>
       <c r="B210">
@@ -3179,7 +3185,7 @@
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A211" s="2">
+      <c r="A211" s="3">
         <v>42886</v>
       </c>
       <c r="B211">
@@ -3192,7 +3198,7 @@
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A212" s="2">
+      <c r="A212" s="3">
         <v>42916</v>
       </c>
       <c r="B212">
@@ -3205,7 +3211,7 @@
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A213" s="2">
+      <c r="A213" s="3">
         <v>42947</v>
       </c>
       <c r="B213">
@@ -3218,7 +3224,7 @@
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A214" s="2">
+      <c r="A214" s="3">
         <v>42978</v>
       </c>
       <c r="B214">
@@ -3231,7 +3237,7 @@
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A215" s="2">
+      <c r="A215" s="3">
         <v>43007</v>
       </c>
       <c r="B215">
@@ -3244,7 +3250,7 @@
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A216" s="2">
+      <c r="A216" s="3">
         <v>43039</v>
       </c>
       <c r="B216">
@@ -3257,7 +3263,7 @@
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A217" s="2">
+      <c r="A217" s="3">
         <v>43069</v>
       </c>
       <c r="B217">
@@ -3270,7 +3276,7 @@
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A218" s="2">
+      <c r="A218" s="3">
         <v>43098</v>
       </c>
       <c r="B218">
@@ -3283,7 +3289,7 @@
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A219" s="2">
+      <c r="A219" s="3">
         <v>43131</v>
       </c>
       <c r="B219">
@@ -3296,7 +3302,7 @@
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A220" s="2">
+      <c r="A220" s="3">
         <v>43159</v>
       </c>
       <c r="B220">
@@ -3309,7 +3315,7 @@
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A221" s="2">
+      <c r="A221" s="3">
         <v>43189</v>
       </c>
       <c r="B221">
@@ -3322,7 +3328,7 @@
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A222" s="2">
+      <c r="A222" s="3">
         <v>43220</v>
       </c>
       <c r="B222">
@@ -3335,7 +3341,7 @@
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A223" s="2">
+      <c r="A223" s="3">
         <v>43251</v>
       </c>
       <c r="B223">
@@ -3348,7 +3354,7 @@
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A224" s="2">
+      <c r="A224" s="3">
         <v>43280</v>
       </c>
       <c r="B224">
@@ -3361,7 +3367,7 @@
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A225" s="2">
+      <c r="A225" s="3">
         <v>43312</v>
       </c>
       <c r="B225">
@@ -3374,7 +3380,7 @@
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A226" s="2">
+      <c r="A226" s="3">
         <v>43343</v>
       </c>
       <c r="B226">
@@ -3387,7 +3393,7 @@
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A227" s="2">
+      <c r="A227" s="3">
         <v>43371</v>
       </c>
       <c r="B227">
@@ -3400,7 +3406,7 @@
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A228" s="2">
+      <c r="A228" s="3">
         <v>43404</v>
       </c>
       <c r="B228">
@@ -3413,7 +3419,7 @@
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A229" s="2">
+      <c r="A229" s="3">
         <v>43434</v>
       </c>
       <c r="B229">
@@ -3426,7 +3432,7 @@
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A230" s="2">
+      <c r="A230" s="3">
         <v>43465</v>
       </c>
       <c r="B230">
@@ -3439,7 +3445,7 @@
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A231" s="2">
+      <c r="A231" s="3">
         <v>43496</v>
       </c>
       <c r="B231">
@@ -3452,7 +3458,7 @@
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A232" s="2">
+      <c r="A232" s="3">
         <v>43524</v>
       </c>
       <c r="B232">
@@ -3465,7 +3471,7 @@
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A233" s="2">
+      <c r="A233" s="3">
         <v>43553</v>
       </c>
       <c r="B233">
@@ -3478,7 +3484,7 @@
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A234" s="2">
+      <c r="A234" s="3">
         <v>43585</v>
       </c>
       <c r="B234">
@@ -3491,7 +3497,7 @@
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A235" s="2">
+      <c r="A235" s="3">
         <v>43616</v>
       </c>
       <c r="B235">
@@ -3504,7 +3510,7 @@
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A236" s="2">
+      <c r="A236" s="3">
         <v>43644</v>
       </c>
       <c r="B236">
@@ -3517,7 +3523,7 @@
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A237" s="2">
+      <c r="A237" s="3">
         <v>43677</v>
       </c>
       <c r="B237">
@@ -3530,7 +3536,7 @@
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A238" s="2">
+      <c r="A238" s="3">
         <v>43707</v>
       </c>
       <c r="B238">
@@ -3670,6 +3676,32 @@
       <c r="C248">
         <f>[1]!s_val_pe_ttm($A$1,A248)</f>
         <v>19.623100280761719</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A249" s="2">
+        <v>44043</v>
+      </c>
+      <c r="B249">
+        <f>[1]!S_DQ_Close($A$1,A249)</f>
+        <v>5219.4997999999996</v>
+      </c>
+      <c r="C249">
+        <f>[1]!s_val_pe_ttm($A$1,A249)</f>
+        <v>21.938100814819336</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A250" s="1">
+        <v>44074</v>
+      </c>
+      <c r="B250">
+        <f>[1]!S_DQ_Close($A$1,A250)</f>
+        <v>5322.2440999999999</v>
+      </c>
+      <c r="C250">
+        <f>[1]!s_val_pe_ttm($A$1,A250)</f>
+        <v>23.617500305175781</v>
       </c>
     </row>
   </sheetData>
